--- a/20250206-新增APR相關特徵/使用的特徵.xlsx
+++ b/20250206-新增APR相關特徵/使用的特徵.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <si>
     <t>bugid</t>
   </si>
@@ -167,6 +167,13 @@
   </si>
   <si>
     <t>Template</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>補充說明</t>
+  </si>
+  <si>
+    <t>標示用，不參與訓練</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -531,10 +538,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T18"/>
+  <dimension ref="A1:V19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="T25" sqref="T25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="U1" sqref="U1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -542,7 +549,7 @@
     <col min="7" max="7" width="16.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -603,8 +610,14 @@
       <c r="T1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="C2">
         <v>1</v>
       </c>
@@ -615,7 +628,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="D3">
         <v>0.8</v>
       </c>
@@ -626,7 +639,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="E4">
         <v>0.6</v>
       </c>
@@ -634,7 +647,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="F5">
         <v>0.4</v>
       </c>
@@ -642,69 +655,137 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="L6" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="M7" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="N8" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="O9" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="P10" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="Q11" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="R12" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="S13" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="T14" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="T15" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="T16" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
       <c r="T17" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
       <c r="T18" t="s">
         <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>0</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19">
+        <v>2</v>
+      </c>
+      <c r="D19">
+        <v>3</v>
+      </c>
+      <c r="E19">
+        <v>4</v>
+      </c>
+      <c r="F19">
+        <v>5</v>
+      </c>
+      <c r="G19">
+        <v>6</v>
+      </c>
+      <c r="H19">
+        <v>7</v>
+      </c>
+      <c r="I19">
+        <v>8</v>
+      </c>
+      <c r="J19">
+        <v>9</v>
+      </c>
+      <c r="K19">
+        <v>10</v>
+      </c>
+      <c r="L19">
+        <v>11</v>
+      </c>
+      <c r="M19">
+        <v>12</v>
+      </c>
+      <c r="N19">
+        <v>13</v>
+      </c>
+      <c r="O19">
+        <v>14</v>
+      </c>
+      <c r="P19">
+        <v>15</v>
+      </c>
+      <c r="Q19">
+        <v>16</v>
+      </c>
+      <c r="R19">
+        <v>17</v>
+      </c>
+      <c r="S19">
+        <v>18</v>
+      </c>
+      <c r="T19">
+        <v>19</v>
+      </c>
+      <c r="U19">
+        <v>20</v>
+      </c>
+      <c r="V19">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
